--- a/solutions/ch2-solutions.xlsx
+++ b/solutions/ch2-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40633F6-3D22-4E03-88DD-6415BE6F42AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B414D677-BB98-4125-A9C3-78337AA1D1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,20 +35,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>1. The expected value of a six-sided die toss is 3 because the average toss will converge to 3 with more and more tosses.</t>
-  </si>
-  <si>
-    <t>2. We can find the percentage likelihood that this value would take 28 with the `NORM.DIST()` function:</t>
-  </si>
-  <si>
-    <t>3. The range 80-120 is within two standard deviations of a variable with mean 100 and standard deviation 10;</t>
-  </si>
-  <si>
     <t>therefore we can expect about 95% of all observations to fall within this range.</t>
   </si>
   <si>
+    <t>as we would be any other number.</t>
+  </si>
+  <si>
+    <t>Q1. The expected value of a six-sided die toss is 3 because the average toss will converge to 3 with more and more tosses.</t>
+  </si>
+  <si>
+    <t>Q2. We can find the percentage likelihood that this value would take 28 with the `NORM.DIST()` function:</t>
+  </si>
+  <si>
+    <t>Q3. The range 80-120 is within two standard deviations of a variable with mean 100 and standard deviation 10;</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">4. We are not better off betting 18 because each spin is an </t>
+      <t xml:space="preserve">Q4. We are not better off betting 18 because each spin is an </t>
     </r>
     <r>
       <rPr>
@@ -71,9 +74,6 @@
       </rPr>
       <t>where we are likely to land on 18</t>
     </r>
-  </si>
-  <si>
-    <t>as we would be any other number.</t>
   </si>
 </sst>
 </file>
@@ -402,27 +402,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.703125" customWidth="1"/>
+    <col min="2" max="2" width="12.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B4" s="1">
         <f>_xlfn.NORM.DIST(87,100,10,0)</f>
         <v>1.7136859204780735E-2</v>
@@ -432,24 +432,24 @@
         <v>=NORM.DIST(87,100,10,0)</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
